--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/notes Anciennes/0SY - Cours 09 - Normalisation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="540" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49A39561-B799-451F-895D-0AA525C8A0A8}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{392C3109-37B1-4415-98B6-6C8281F9D9A9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
   <si>
     <t>Marie-Christine</t>
   </si>
@@ -441,9 +441,6 @@
     <t>Pour toutes les questions: ajouter les clés primaires et clés étrangères</t>
   </si>
   <si>
-    <t>Q1: manque-t-il des champs pour identifier l'enregistrement d'un véhicule?</t>
-  </si>
-  <si>
     <t>Joanie Gauthier</t>
   </si>
   <si>
@@ -624,18 +621,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>Q2: mettre en 1NF. Quelles sont les règles, pourquoi c'est en 1NF?</t>
-  </si>
-  <si>
-    <t>Q3: Mettre en 2NF. Quelles sont les règles, pourquoi c'est en 2NF?</t>
-  </si>
-  <si>
-    <t>Q4: Mettre en 3NF. Quelles sont les règles, pourquoi c'est en 3NF?</t>
-  </si>
-  <si>
-    <t>Q5: Où devrait-on mettre l'année du véhicule?</t>
-  </si>
-  <si>
     <t>Récolter les informations sur une facture quelconque. Faire la table sous forme universelle avec des valeurs à l'intérieur (inventées et cohérentes)</t>
   </si>
   <si>
@@ -646,6 +631,9 @@
   </si>
   <si>
     <t>Pour toutes les questions: mettre une flèche d'une FK vers la PK qu'elle pointe</t>
+  </si>
+  <si>
+    <t>Q4: Où devrait-on mettre l'année du véhicule?</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1197,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,34 +1212,29 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1291,7 +1274,7 @@
         <v>114</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,22 +1294,22 @@
         <v>119</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,7 +1324,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1373,18 +1356,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1416,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1445,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>29</v>
@@ -1536,12 +1519,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -1581,53 +1564,53 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="L3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1644,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -1671,7 +1654,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>90</v>
@@ -1692,7 +1675,7 @@
         <v>87</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="15">
         <v>200</v>
@@ -1731,7 +1714,7 @@
         <v>93</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I6" s="15">
         <v>50</v>
@@ -1784,12 +1767,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1823,30 +1806,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1857,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E4" s="5">
         <v>1135</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1950,12 +1933,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1989,12 +1972,12 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2016,13 +1999,13 @@
         <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>38</v>
@@ -2031,7 +2014,7 @@
         <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2048,7 +2031,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>43</v>
@@ -2063,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2080,7 +2063,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>41</v>
@@ -2095,7 +2078,7 @@
         <v>59</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2112,7 +2095,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>69</v>
@@ -2127,7 +2110,7 @@
         <v>59</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2144,7 +2127,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>41</v>
@@ -2159,7 +2142,7 @@
         <v>59</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,7 +2159,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>66</v>
@@ -2191,7 +2174,7 @@
         <v>59</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,7 +2191,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>41</v>
@@ -2223,7 +2206,7 @@
         <v>64</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2240,7 +2223,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>41</v>
@@ -2255,7 +2238,7 @@
         <v>59</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2275,7 +2258,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2285,7 +2268,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2305,12 +2288,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{392C3109-37B1-4415-98B6-6C8281F9D9A9}"/>
+  <xr:revisionPtr revIDLastSave="543" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B624A274-B024-4555-98D5-1D25CFC8E655}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="5" r:id="rId1"/>
@@ -556,9 +556,6 @@
     <t>date_arrivee</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>num_propriete</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>Q4: Où devrait-on mettre l'année du véhicule?</t>
+  </si>
+  <si>
+    <t>id_client</t>
   </si>
 </sst>
 </file>
@@ -875,6 +875,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1196,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F0ABC-7493-4F52-A84B-9B8F0D77D871}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,16 +1223,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>104</v>
@@ -1254,7 +1258,7 @@
         <v>109</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1274,7 +1278,7 @@
         <v>114</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1298,7 @@
         <v>119</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,7 +1318,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1324,7 +1328,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D5A941-9309-4D32-9F34-75AF1DADBEDA}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1356,18 +1362,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1399,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>24</v>
@@ -1428,7 +1434,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>29</v>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -1772,7 +1778,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1806,30 +1812,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1840,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="E4" s="5">
         <v>1135</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2274,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2288,12 +2294,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B624A274-B024-4555-98D5-1D25CFC8E655}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB554C9-06D6-494D-B097-5E0C74A19A32}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
   <si>
     <t>Marie-Christine</t>
   </si>
@@ -94,9 +94,6 @@
     <t>montant_location</t>
   </si>
   <si>
-    <t>num_propriétaire</t>
-  </si>
-  <si>
     <t>nom_proprio</t>
   </si>
   <si>
@@ -175,12 +172,6 @@
     <t>citoyen</t>
   </si>
   <si>
-    <t>numéro téléphone</t>
-  </si>
-  <si>
-    <t>explication</t>
-  </si>
-  <si>
     <t>Karen</t>
   </si>
   <si>
@@ -299,9 +290,6 @@
     <t>puisart bouché, venir le débloquer au plus vite</t>
   </si>
   <si>
-    <t>langue citoyen</t>
-  </si>
-  <si>
     <t>Q1: mettre en 1NF. Quelles sont les règles, pourquoi c'est en 1NF?</t>
   </si>
   <si>
@@ -312,15 +300,6 @@
   </si>
   <si>
     <t>Dans le contexte d'ajout d'un module d'un module de requêtes de divers type à divers endroit dans la ville, on a relevé les champs suivants:</t>
-  </si>
-  <si>
-    <t>Requêtes citoyennes</t>
-  </si>
-  <si>
-    <t>plateforme demande</t>
-  </si>
-  <si>
-    <t>type requete</t>
   </si>
   <si>
     <t>hotel</t>
@@ -448,12 +427,6 @@
   </si>
   <si>
     <t>prix</t>
-  </si>
-  <si>
-    <t>lieu concerné</t>
-  </si>
-  <si>
-    <t>date_requête</t>
   </si>
   <si>
     <t>25/02/2024</t>
@@ -483,9 +456,6 @@
     <t>Pour simplifier, on imagine que la date est aussi une heure précise, donc un citoyen ne peut pas envoyer 2 demandes à la même "date" exactement</t>
   </si>
   <si>
-    <t>département_traitant</t>
-  </si>
-  <si>
     <t>Le département traitant est automatiquement déterminé lors du choix du type de la plainte</t>
   </si>
   <si>
@@ -500,9 +470,6 @@
   </si>
   <si>
     <t>Q4: Où et comment devrait-on ajouter l'employé qui réceptionne la requête? Ils ont tous un matricule unique et un nom, entre autres.</t>
-  </si>
-  <si>
-    <t>Réservation</t>
   </si>
   <si>
     <t>Voyage: champs reliés à la réservation d'un séjour par un client à un hôtel</t>
@@ -634,6 +601,39 @@
   </si>
   <si>
     <t>id_client</t>
+  </si>
+  <si>
+    <t>num_proprietaire</t>
+  </si>
+  <si>
+    <t>reservations</t>
+  </si>
+  <si>
+    <t>…,  …,  …,  …, …</t>
+  </si>
+  <si>
+    <t>requetes</t>
+  </si>
+  <si>
+    <t>type_requete</t>
+  </si>
+  <si>
+    <t>departement_traitant</t>
+  </si>
+  <si>
+    <t>plateforme_demande</t>
+  </si>
+  <si>
+    <t>lieu_concerne</t>
+  </si>
+  <si>
+    <t>explications</t>
+  </si>
+  <si>
+    <t>langue_citoyen</t>
+  </si>
+  <si>
+    <t>date_requete</t>
   </si>
 </sst>
 </file>
@@ -1213,122 +1213,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D5A941-9309-4D32-9F34-75AF1DADBEDA}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,23 +1357,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1388,68 +1388,68 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1525,17 +1525,17 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A12" sqref="A12:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,76 +1570,76 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="L3" s="13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D4" s="15">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="15">
@@ -1649,10 +1649,10 @@
         <v>122521255</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M4" s="12">
         <v>45795</v>
@@ -1660,28 +1660,28 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="I5" s="15">
         <v>200</v>
@@ -1690,7 +1690,7 @@
         <v>5471254515</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="12">
@@ -1699,28 +1699,28 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="15">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F6" s="15">
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I6" s="15">
         <v>50</v>
@@ -1729,10 +1729,10 @@
         <v>545842654</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M6" s="12">
         <v>45547</v>
@@ -1748,37 +1748,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1791,7 +1791,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,35 +1807,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1846,18 +1846,20 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E4" s="5">
         <v>1135</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -1878,7 +1880,9 @@
       <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1899,7 +1903,9 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1929,22 +1935,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1954,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B99B23-511E-4D7C-A488-2608C34AFA0D}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,310 +1977,286 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>136</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I6" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="G11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="B12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="H12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>73</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F3ADC9-9E79-4D86-918D-75855C3BEA47}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2294,12 +2276,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="559" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECB554C9-06D6-494D-B097-5E0C74A19A32}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68F9061-3BAC-4294-BD77-848DBCAB283D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
   <si>
     <t>Marie-Christine</t>
   </si>
@@ -356,12 +356,6 @@
     <t>2 lits</t>
   </si>
   <si>
-    <t>Q4: Si on veut ajouter le champ 'nombre de jours', on le met où?</t>
-  </si>
-  <si>
-    <t>Q5: Si on veut ajouter le champ 'mode de réservation' on le met où?</t>
-  </si>
-  <si>
     <t>Parking du cégep</t>
   </si>
   <si>
@@ -634,6 +628,9 @@
   </si>
   <si>
     <t>date_requete</t>
+  </si>
+  <si>
+    <t>Ajouter les champs que vous pensez manquants</t>
   </si>
 </sst>
 </file>
@@ -1213,92 +1210,92 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="F7" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,17 +1315,17 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1362,18 +1359,18 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1388,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -1405,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
@@ -1434,7 +1431,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
@@ -1525,12 +1522,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.25">
@@ -1549,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDB3C3-8A5F-47AE-8F7E-11BF1BD12194}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,53 +1567,53 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="H3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="M3" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1633,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="15">
         <v>1</v>
@@ -1660,7 +1657,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>83</v>
@@ -1681,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I5" s="15">
         <v>200</v>
@@ -1720,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I6" s="15">
         <v>50</v>
@@ -1746,6 +1743,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
@@ -1761,24 +1763,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1812,30 +1804,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1846,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="5">
         <v>1135</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1881,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1904,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,12 +1937,12 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1984,17 +1976,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2002,28 +1994,28 @@
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2037,7 +2029,7 @@
         <v>39</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>40</v>
@@ -2052,7 +2044,7 @@
         <v>56</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2066,7 +2058,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>38</v>
@@ -2081,7 +2073,7 @@
         <v>56</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,7 +2087,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>66</v>
@@ -2110,7 +2102,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2124,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>38</v>
@@ -2139,7 +2131,7 @@
         <v>56</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,7 +2145,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>63</v>
@@ -2168,7 +2160,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2182,7 +2174,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>38</v>
@@ -2197,7 +2189,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2211,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>38</v>
@@ -2226,7 +2218,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2246,17 +2238,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2260,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F3ADC9-9E79-4D86-918D-75855C3BEA47}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2276,12 +2268,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="563" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68F9061-3BAC-4294-BD77-848DBCAB283D}"/>
+  <xr:revisionPtr revIDLastSave="587" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E7BCD2-D533-43D2-B406-E92EFD085C6E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
   <si>
     <t>Marie-Christine</t>
   </si>
@@ -493,12 +493,6 @@
     <t>responsable_reservation</t>
   </si>
   <si>
-    <t>nombre_chambres</t>
-  </si>
-  <si>
-    <t>animaux_accepte</t>
-  </si>
-  <si>
     <t>montant_coupon</t>
   </si>
   <si>
@@ -631,6 +625,24 @@
   </si>
   <si>
     <t>Ajouter les champs que vous pensez manquants</t>
+  </si>
+  <si>
+    <t>type_chambre</t>
+  </si>
+  <si>
+    <t>1 lit king</t>
+  </si>
+  <si>
+    <t>2 lits doubles</t>
+  </si>
+  <si>
+    <t>suite junior</t>
+  </si>
+  <si>
+    <t>avec_animaux</t>
+  </si>
+  <si>
+    <t>Q1: Mettre en 1NF. Quelles sont les règles, pourquoi c'est en 1NF?</t>
   </si>
 </sst>
 </file>
@@ -1201,35 +1213,35 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>95</v>
@@ -1238,7 +1250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>96</v>
       </c>
@@ -1255,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>101</v>
       </c>
@@ -1275,10 +1287,10 @@
         <v>105</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
@@ -1295,37 +1307,37 @@
         <v>110</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1339,38 +1351,38 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -1385,13 +1397,13 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
@@ -1420,7 +1432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>28</v>
@@ -1449,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1460,7 +1472,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1471,7 +1483,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1484,7 +1496,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1497,7 +1509,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -1510,7 +1522,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1520,17 +1532,17 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
         <v>33</v>
       </c>
@@ -1546,196 +1558,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDB3C3-8A5F-47AE-8F7E-11BF1BD12194}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="M3" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>45795</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="15">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>122521255</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>45665</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="15">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>122521255</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="12">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>200</v>
       </c>
-      <c r="J5" s="15">
+      <c r="K5" s="15">
         <v>5471254515</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="12">
-        <v>45665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>45547</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="15">
+      <c r="E6" s="15">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="15">
-        <v>2</v>
-      </c>
       <c r="G6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>50</v>
       </c>
-      <c r="J6" s="15">
+      <c r="K6" s="15">
         <v>545842654</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="12">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1743,34 +1754,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1786,51 +1797,51 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1838,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" s="5">
         <v>1135</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1873,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1896,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1907,7 +1918,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1915,7 +1926,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1925,24 +1936,24 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1954,72 +1965,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B99B23-511E-4D7C-A488-2608C34AFA0D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1"/>
+    <col min="8" max="8" width="47.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2047,8 +2058,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2066,7 +2077,7 @@
       <c r="F7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2076,8 +2087,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2105,8 +2116,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2134,8 +2145,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2163,8 +2174,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2182,7 +2193,7 @@
       <c r="F11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2192,8 +2203,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2211,7 +2222,7 @@
       <c r="F12" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2221,34 +2232,34 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2264,16 +2275,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/semaine09/Exercices Normalisation.xlsx
+++ b/semaine09/Exercices Normalisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cshawi-my.sharepoint.com/personal/mcbelanger_cshawi_ca/Documents/_Cegep_info/Ses_Hiver/420-0SY - Analyse/420-OSY-SW-Analyse-relationnelle/semaine09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68E7BCD2-D533-43D2-B406-E92EFD085C6E}"/>
+  <xr:revisionPtr revIDLastSave="591" documentId="8_{0CDC9A09-5338-47D0-A91C-47F2FEC72C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D3B264-0E19-4320-BEF8-383CEB2621E8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B02091C1-2DFE-4079-9D1D-F88DE3837252}"/>
   </bookViews>
   <sheets>
     <sheet name="1-parking" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="187">
   <si>
     <t>Marie-Christine</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>Q1: Mettre en 1NF. Quelles sont les règles, pourquoi c'est en 1NF?</t>
+  </si>
+  <si>
+    <t>Est-ce qu'il manque des champs?</t>
   </si>
 </sst>
 </file>
@@ -1209,9 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509F0ABC-7493-4F52-A84B-9B8F0D77D871}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1556,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BDB3C3-8A5F-47AE-8F7E-11BF1BD12194}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,205 +1583,208 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I5" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
-        <v>45795</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
-        <v>122521255</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
-        <v>45665</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" s="15">
-        <v>200</v>
-      </c>
-      <c r="K5" s="15">
-        <v>5471254515</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
+        <v>45795</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15">
+        <v>122521255</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>45665</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="15">
+        <v>200</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5471254515</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>45547</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E8" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J8" s="15">
         <v>50</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K8" s="15">
         <v>545842654</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1965,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B99B23-511E-4D7C-A488-2608C34AFA0D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
